--- a/data/original/exercises/020-qualtrics/030-020-010-ex1.xlsx
+++ b/data/original/exercises/020-qualtrics/030-020-010-ex1.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,6 +537,112 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44523.81192129629</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44523.81467592593</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>237</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44523.81467592593</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1dabec</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ebola %&gt;%
+  pivot_longer (`289`:last_col(), names_to = "day", values_to = "cases") %&gt;%
+  na.omit()</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44518.81696759259</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44518.85575231482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IP Address</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>3350</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44523.87966435185</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2hagra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44523.1821412037</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44523.18387731482</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>149</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44523.87975694444</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2nesch</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
